--- a/biology/Médecine/Os_naviculaire/Os_naviculaire.xlsx
+++ b/biology/Médecine/Os_naviculaire/Os_naviculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’os naviculaire (ou scaphoïde tarsien (os naviculare) est un des os court du pied. Il fait partie du tarse antérieur, qui comprend aussi l’os cuboïde et les trois os cunéiformes. Il est placé en dedans de l'os cuboïde, derrière les os cunéiformes et devant le talus.
 Il doit son nom à sa forme de bateau (navicula, signifiant « petit bateau » en latin).
@@ -512,24 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un os étroit d'avant en arrière, allongé transversalement, à grand axe oblique en bas et en dedans. 
 Il forme des articulations sur trois de ses faces avec d'autres os du pied, et sert de point d'insertion pour un tendon.
 De forme grossièrement parallélépipédique, on lui décrit traditionnellement six faces (quelquefois quatre faces et deux extrémités) :
-Face supérieure
-La face supérieure est convexe.
-Face inférieure
-La face inférieure est concave et présente une gouttière pour le muscle tibial postérieur.
-Face postérieure
-La face postérieure est concave dans tous les sens et forme une surface articulaire qui répond à la facette articulaire naviculaire du talus. L'articulation formée contribue à l'articulation talo-calcanéo-naviculaire.
-Elle donne attache au ligament calcanéo-naviculaire à son extrémité latérale et au ligament talo-naviculaire.
-Face antérieure
-La face antérieure est plane et s'articule avec les trois os cunéiformes pour former l'articulation cunéo-naviculaire.
-Face latérale
-La face latérale ou extrémité latérale. Elle repose sur le cuboïde et s'articule avec la face médiale du cuboïde.
-Face médiale
-La face médiale ou extrémité médiale est très réduite et présente une éminence arrondie : la tubérosité de l'os naviculaire (ou tubercule du scaphoïde). Elle sert de point d'insertion pour le muscle tibial postérieur et pour le ligament cunéo-naviculaire médial.
 </t>
         </is>
       </c>
@@ -555,10 +556,235 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face supérieure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face supérieure est convexe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face inférieure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face inférieure est concave et présente une gouttière pour le muscle tibial postérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Face postérieure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face postérieure est concave dans tous les sens et forme une surface articulaire qui répond à la facette articulaire naviculaire du talus. L'articulation formée contribue à l'articulation talo-calcanéo-naviculaire.
+Elle donne attache au ligament calcanéo-naviculaire à son extrémité latérale et au ligament talo-naviculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face antérieure est plane et s'articule avec les trois os cunéiformes pour former l'articulation cunéo-naviculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Face latérale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face latérale ou extrémité latérale. Elle repose sur le cuboïde et s'articule avec la face médiale du cuboïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Face médiale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face médiale ou extrémité médiale est très réduite et présente une éminence arrondie : la tubérosité de l'os naviculaire (ou tubercule du scaphoïde). Elle sert de point d'insertion pour le muscle tibial postérieur et pour le ligament cunéo-naviculaire médial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Fracture (assez rare)
 Fracture de fatigue, également rare.
@@ -569,33 +795,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Os_naviculaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_naviculaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Naviculaire surnuméraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le naviculaire surnuméraire ou « accessoire »[1] est un os sésamoïde de présence assez commune (4 à 20 % des cas) sur le pied humain et doit faire partie du diagnostic de toute douleur du bord interne du pied chez les sujets d'une certaine tranche d'âge (adolescent et femme de 30 à 40 ans).
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le naviculaire surnuméraire ou « accessoire » est un os sésamoïde de présence assez commune (4 à 20 % des cas) sur le pied humain et doit faire partie du diagnostic de toute douleur du bord interne du pied chez les sujets d'une certaine tranche d'âge (adolescent et femme de 30 à 40 ans).
 </t>
         </is>
       </c>
